--- a/biology/Botanique/Charles_Cognée/Charles_Cognée.xlsx
+++ b/biology/Botanique/Charles_Cognée/Charles_Cognée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Cogn%C3%A9e</t>
+          <t>Charles_Cognée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Charles Cognée est une variété ancienne de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Cogn%C3%A9e</t>
+          <t>Charles_Cognée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire a été obtenue par M. Cognée, arboriculteur à Troyes. Il l'a dédiée à son fils Charles et elle a été  mise en commerce en 1879 par les frères Baltet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire a été obtenue par M. Cognée, arboriculteur à Troyes. Il l'a dédiée à son fils Charles et elle a été  mise en commerce en 1879 par les frères Baltet.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Cogn%C3%A9e</t>
+          <t>Charles_Cognée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Cogn%C3%A9e</t>
+          <t>Charles_Cognée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,13 +586,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Le poirier est très vigoureux, robuste[1].
-Fruit
-Forme : grosse , piriforme, tronquée ou turbinée arrondie.
-Peau jaune citron sur fond blanc crémeux, frappée de jaune orangé[1].
-La maturité est signalée en février-mars[2].
-Cette variété est très sensible à la tavelure[1] et reste un fruit d'amateur qui devra être soumis régulièrement aux traitements cupriques.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier est très vigoureux, robuste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Cognée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Cogn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forme : grosse , piriforme, tronquée ou turbinée arrondie.
+Peau jaune citron sur fond blanc crémeux, frappée de jaune orangé.
+La maturité est signalée en février-mars.
+Cette variété est très sensible à la tavelure et reste un fruit d'amateur qui devra être soumis régulièrement aux traitements cupriques.
 </t>
         </is>
       </c>
